--- a/fuentes/contenidos/grado07/guion05/SolicitudGrafica_LE_07_05_REC320.xlsx
+++ b/fuentes/contenidos/grado07/guion05/SolicitudGrafica_LE_07_05_REC320.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\RecursosGenerales\guiasYformatos\solicitudes\formatos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19203" windowHeight="8949" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -21,12 +16,17 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="199">
   <si>
     <t>Fecha:</t>
   </si>
@@ -591,6 +591,39 @@
   </si>
   <si>
     <t>Trabajar un video</t>
+  </si>
+  <si>
+    <t>http://www.aulaplaneta.com/2015/11/29/infografias/como-organizar-el-lugar-de-estudio/index.html</t>
+  </si>
+  <si>
+    <t>La infografía</t>
+  </si>
+  <si>
+    <t>Luis Felipe Pertuz</t>
+  </si>
+  <si>
+    <t>Fotografía</t>
+  </si>
+  <si>
+    <t>Cómo organizar el lugar de estudio</t>
+  </si>
+  <si>
+    <t>http://www.aulaplaneta.com/2015/11/28/infografias/como-aplicar-la-gamificacion-en-el-aula/index.html</t>
+  </si>
+  <si>
+    <t>Cómo aplicar la gamificación en el aula</t>
+  </si>
+  <si>
+    <t>http://www.aulaplaneta.com/2015/09/05/infografias/ocho-propuestas-para-utilizar-las-redes-sociales-en-el-aula-2/index.html</t>
+  </si>
+  <si>
+    <t>http://www.aulaplaneta.com/2015/10/11/infografias/el-trabajo-por-competencias-en-el-aula/index.html</t>
+  </si>
+  <si>
+    <t>El trabajo por competencias en el aula</t>
+  </si>
+  <si>
+    <t>Ocho propuestas para utilizar las redes sociales en el aula</t>
   </si>
 </sst>
 </file>
@@ -1013,11 +1046,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1026,7 +1059,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1034,17 +1067,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1054,7 +1087,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1062,12 +1095,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1076,18 +1109,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1117,11 +1150,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1131,10 +1164,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1144,7 +1177,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -1218,16 +1251,16 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1235,29 +1268,49 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1631,7 +1684,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="71">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1657,6 +1710,16 @@
     <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1682,6 +1745,16 @@
     <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -1736,7 +1809,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1758,15 +1831,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>19150</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>4787</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1038873</xdr:colOff>
+          <xdr:colOff>1041400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>234584</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1779,7 +1852,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1787,20 +1860,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1813,15 +1872,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1048448</xdr:colOff>
+          <xdr:colOff>1054100</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>4787</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>866526</xdr:colOff>
+          <xdr:colOff>863600</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>234584</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1834,7 +1893,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1842,20 +1901,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1868,15 +1913,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>14362</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>4787</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>4787</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>234584</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1889,7 +1934,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1897,20 +1942,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1925,13 +1956,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>483531</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1019724</xdr:colOff>
+          <xdr:colOff>1016000</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>713328</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1944,7 +1975,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1952,20 +1983,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1978,15 +1995,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1014936</xdr:colOff>
+          <xdr:colOff>1016000</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>483531</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>833014</xdr:colOff>
+          <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>713328</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1999,7 +2016,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2007,20 +2024,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2033,15 +2036,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>4787</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>483531</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>837801</xdr:colOff>
+          <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>713328</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2054,7 +2057,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2062,20 +2065,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2088,15 +2077,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>4787</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>483531</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>837801</xdr:colOff>
+          <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>713328</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2109,7 +2098,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2117,20 +2106,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2463,34 +2438,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1"/>
+  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.1875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.1875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.4375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.4375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="34.875" style="15" customWidth="1"/>
-    <col min="11" max="11" width="29.625" style="15" customWidth="1"/>
-    <col min="12" max="12" width="20.375" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="34.83203125" style="15" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" style="15" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="2" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="10.875" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.875" style="2"/>
+    <col min="14" max="15" width="10.83203125" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" ht="16.25" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2506,15 +2481,17 @@
       </c>
       <c r="M1" s="2" t="str">
         <f>CONCATENATE('Definición técnica de imagenes'!$B$1," ",$G$5)</f>
-        <v xml:space="preserve">Ubicación de la imagen en el recurso </v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.85" x14ac:dyDescent="0.5">
+        <v>Ubicación de la imagen en el recurso M101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="85"/>
+      <c r="C2" s="85" t="s">
+        <v>24</v>
+      </c>
       <c r="D2" s="86"/>
       <c r="F2" s="78" t="s">
         <v>0</v>
@@ -2528,7 +2505,7 @@
       </c>
       <c r="M2" s="2" t="str">
         <f ca="1">IF($N2&lt;COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1+$N2,1,1,1),"")</f>
-        <v/>
+        <v>Contenido</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
@@ -2538,12 +2515,14 @@
         <v>M3A</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:16" ht="15.75">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="87"/>
+      <c r="C3" s="87">
+        <v>7</v>
+      </c>
       <c r="D3" s="88"/>
       <c r="F3" s="80"/>
       <c r="G3" s="81"/>
@@ -2565,18 +2544,22 @@
         <v>M5A</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:16" ht="15.75">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="87"/>
+      <c r="C4" s="87" t="s">
+        <v>189</v>
+      </c>
       <c r="D4" s="88"/>
       <c r="E4" s="5"/>
       <c r="F4" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="61"/>
+      <c r="G4" s="61" t="s">
+        <v>56</v>
+      </c>
       <c r="H4" s="58"/>
       <c r="I4" s="38"/>
       <c r="J4" s="14"/>
@@ -2593,19 +2576,23 @@
         <v>M6A</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" ht="16.25" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="89"/>
+      <c r="C5" s="89" t="s">
+        <v>190</v>
+      </c>
       <c r="D5" s="90"/>
       <c r="E5" s="5"/>
       <c r="F5" s="37" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
-        <v/>
-      </c>
-      <c r="G5" s="61"/>
+        <v>Motor del recurso</v>
+      </c>
+      <c r="G5" s="61" t="s">
+        <v>91</v>
+      </c>
       <c r="H5" s="58"/>
       <c r="I5" s="58"/>
       <c r="J5" s="14"/>
@@ -2622,7 +2609,7 @@
         <v>M7A</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" ht="16.25" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2646,7 +2633,7 @@
         <v>M8A</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:16" ht="15" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="24" t="s">
         <v>40</v>
@@ -2675,7 +2662,7 @@
         <v>M9B</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="8" customFormat="1" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:16" s="8" customFormat="1" ht="16.25" thickBot="1">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -2702,7 +2689,7 @@
       </c>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="38.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="38.75" customHeight="1" thickBot="1">
       <c r="A9" s="21" t="s">
         <v>2</v>
       </c>
@@ -2717,7 +2704,7 @@
       </c>
       <c r="E9" s="18" t="str">
         <f>IF($G$4="Recurso",$M$1,$L$1)</f>
-        <v>Formato</v>
+        <v>Ubicación de la imagen en el recurso M101</v>
       </c>
       <c r="F9" s="57" t="s">
         <v>61</v>
@@ -2742,147 +2729,179 @@
         <v>M10B</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" s="11" customFormat="1" ht="65">
       <c r="A10" s="12" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
-        <v/>
-      </c>
-      <c r="B10" s="62"/>
+        <v>IMG01</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>188</v>
+      </c>
       <c r="C10" s="20" t="str">
         <f t="shared" ref="C10:C41" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v/>
-      </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
+        <v>Recurso M101</v>
+      </c>
+      <c r="D10" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>156</v>
+      </c>
       <c r="F10" s="13" t="str">
-        <f t="shared" ref="F10" si="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v/>
+        <f t="shared" ref="F10" ca="1" si="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>CN_08_01_REC10_IMG01n.png</v>
       </c>
       <c r="G10" s="13" t="str">
         <f ca="1">IF($F10&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>286 x 286 px</v>
       </c>
       <c r="H10" s="13" t="str">
         <f t="shared" ref="H10" ca="1" si="2">IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v/>
+        <v>CN_08_01_REC10_IMG01a.png</v>
       </c>
       <c r="I10" s="13" t="str">
         <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J10" s="63"/>
+        <v>500 x 500 px</v>
+      </c>
+      <c r="J10" s="63" t="s">
+        <v>192</v>
+      </c>
       <c r="K10" s="64"/>
       <c r="O10" s="2" t="str">
         <f>'Definición técnica de imagenes'!A12</f>
         <v>M12D</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="11" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" s="11" customFormat="1" ht="14" customHeight="1">
       <c r="A11" s="12" t="str">
         <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
-        <v/>
-      </c>
-      <c r="B11" s="62"/>
+        <v>IMG02</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>193</v>
+      </c>
       <c r="C11" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
+        <v>Recurso M101</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>156</v>
+      </c>
       <c r="F11" s="13" t="str">
-        <f t="shared" ref="F11:F74" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v/>
+        <f t="shared" ref="F11:F74" ca="1" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>CN_08_01_REC10_IMG02n.png</v>
       </c>
       <c r="G11" s="13" t="str">
         <f ca="1">IF($F11&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>286 x 286 px</v>
       </c>
       <c r="H11" s="13" t="str">
         <f t="shared" ref="H11:H74" ca="1" si="5">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v/>
+        <v>CN_08_01_REC10_IMG02a.png</v>
       </c>
       <c r="I11" s="13" t="str">
         <f ca="1">IF(OR($B11&lt;&gt;"",$J11&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J11" s="64"/>
+        <v>500 x 500 px</v>
+      </c>
+      <c r="J11" s="64" t="s">
+        <v>194</v>
+      </c>
       <c r="K11" s="65"/>
       <c r="O11" s="2" t="str">
         <f>'Definición técnica de imagenes'!A13</f>
         <v>M101</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" s="11" customFormat="1" ht="78">
       <c r="A12" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B12" s="62"/>
+        <v>IMG03</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>195</v>
+      </c>
       <c r="C12" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
+        <v>Recurso M101</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>156</v>
+      </c>
       <c r="F12" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_08_01_REC10_IMG03n.png</v>
       </c>
       <c r="G12" s="13" t="str">
         <f ca="1">IF($F12&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>286 x 286 px</v>
       </c>
       <c r="H12" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_08_01_REC10_IMG03a.png</v>
       </c>
       <c r="I12" s="13" t="str">
         <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J12" s="64"/>
+        <v>500 x 500 px</v>
+      </c>
+      <c r="J12" s="64" t="s">
+        <v>198</v>
+      </c>
       <c r="K12" s="64"/>
       <c r="O12" s="2" t="str">
         <f>'Definición técnica de imagenes'!A18</f>
         <v>Diaporama F1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="65">
       <c r="A13" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B13" s="62"/>
+        <v>IMG04</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>196</v>
+      </c>
       <c r="C13" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
+        <v>Recurso M101</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>156</v>
+      </c>
       <c r="F13" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_08_01_REC10_IMG04n.png</v>
       </c>
       <c r="G13" s="13" t="str">
         <f ca="1">IF($F13&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>286 x 286 px</v>
       </c>
       <c r="H13" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_08_01_REC10_IMG04a.png</v>
       </c>
       <c r="I13" s="13" t="str">
         <f ca="1">IF(OR($B13&lt;&gt;"",$J13&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J13" s="64"/>
+        <v>500 x 500 px</v>
+      </c>
+      <c r="J13" s="64" t="s">
+        <v>197</v>
+      </c>
       <c r="K13" s="64"/>
       <c r="O13" s="2" t="str">
         <f>'Definición técnica de imagenes'!A19</f>
         <v>F4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="15">
       <c r="A14" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2917,7 +2936,7 @@
         <v>F6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="15">
       <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2952,7 +2971,7 @@
         <v>F6B</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="15">
       <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2987,7 +3006,7 @@
         <v>F7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3022,7 +3041,7 @@
         <v>F7B</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3057,7 +3076,7 @@
         <v>F8</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A19" s="12" t="str">
         <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
         <v/>
@@ -3092,7 +3111,7 @@
         <v>F10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A20" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3127,7 +3146,7 @@
         <v>F10B</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A21" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3162,7 +3181,7 @@
         <v>F11</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A22" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3197,7 +3216,7 @@
         <v>F12</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A23" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3232,7 +3251,7 @@
         <v>F13</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A24" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3267,7 +3286,7 @@
         <v>F13B</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A25" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3298,7 +3317,7 @@
       <c r="J25" s="63"/>
       <c r="K25" s="64"/>
     </row>
-    <row r="26" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A26" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3329,7 +3348,7 @@
       <c r="J26" s="63"/>
       <c r="K26" s="64"/>
     </row>
-    <row r="27" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A27" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3361,7 +3380,7 @@
       <c r="K27" s="64"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A28" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3392,7 +3411,7 @@
       <c r="J28" s="64"/>
       <c r="K28" s="64"/>
     </row>
-    <row r="29" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A29" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3423,7 +3442,7 @@
       <c r="J29" s="64"/>
       <c r="K29" s="64"/>
     </row>
-    <row r="30" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A30" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3454,7 +3473,7 @@
       <c r="J30" s="64"/>
       <c r="K30" s="64"/>
     </row>
-    <row r="31" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A31" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3485,7 +3504,7 @@
       <c r="J31" s="64"/>
       <c r="K31" s="64"/>
     </row>
-    <row r="32" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A32" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3516,7 +3535,7 @@
       <c r="J32" s="64"/>
       <c r="K32" s="64"/>
     </row>
-    <row r="33" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A33" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3547,7 +3566,7 @@
       <c r="J33" s="64"/>
       <c r="K33" s="64"/>
     </row>
-    <row r="34" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A34" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3579,7 +3598,7 @@
       <c r="K34" s="64"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A35" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3611,7 +3630,7 @@
       <c r="K35" s="65"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A36" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3643,7 +3662,7 @@
       <c r="K36" s="65"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A37" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3674,7 +3693,7 @@
       <c r="J37" s="70"/>
       <c r="K37" s="65"/>
     </row>
-    <row r="38" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A38" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3705,7 +3724,7 @@
       <c r="J38" s="71"/>
       <c r="K38" s="65"/>
     </row>
-    <row r="39" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A39" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3736,7 +3755,7 @@
       <c r="J39" s="63"/>
       <c r="K39" s="65"/>
     </row>
-    <row r="40" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A40" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3767,7 +3786,7 @@
       <c r="J40" s="63"/>
       <c r="K40" s="65"/>
     </row>
-    <row r="41" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A41" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3798,7 +3817,7 @@
       <c r="J41" s="63"/>
       <c r="K41" s="65"/>
     </row>
-    <row r="42" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A42" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3829,7 +3848,7 @@
       <c r="J42" s="63"/>
       <c r="K42" s="65"/>
     </row>
-    <row r="43" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A43" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3860,7 +3879,7 @@
       <c r="J43" s="63"/>
       <c r="K43" s="65"/>
     </row>
-    <row r="44" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A44" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3891,7 +3910,7 @@
       <c r="J44" s="63"/>
       <c r="K44" s="65"/>
     </row>
-    <row r="45" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A45" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3922,7 +3941,7 @@
       <c r="J45" s="63"/>
       <c r="K45" s="65"/>
     </row>
-    <row r="46" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A46" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3953,7 +3972,7 @@
       <c r="J46" s="63"/>
       <c r="K46" s="65"/>
     </row>
-    <row r="47" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A47" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3984,7 +4003,7 @@
       <c r="J47" s="63"/>
       <c r="K47" s="65"/>
     </row>
-    <row r="48" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" s="11" customFormat="1" ht="15">
       <c r="A48" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4015,7 +4034,7 @@
       <c r="J48" s="63"/>
       <c r="K48" s="65"/>
     </row>
-    <row r="49" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A49" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4046,7 +4065,7 @@
       <c r="J49" s="63"/>
       <c r="K49" s="65"/>
     </row>
-    <row r="50" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A50" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4077,7 +4096,7 @@
       <c r="J50" s="63"/>
       <c r="K50" s="65"/>
     </row>
-    <row r="51" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A51" s="12" t="str">
         <f t="shared" ref="A51:A82" si="8">IF(OR(B51&lt;&gt;"",J51&lt;&gt;""),CONCATENATE(LEFT(A50,3),IF(MID(A50,4,2)+1&lt;10,CONCATENATE("0",MID(A50,4,2)+1),MID(A50,4,2)+1)),"")</f>
         <v/>
@@ -4108,7 +4127,7 @@
       <c r="J51" s="63"/>
       <c r="K51" s="65"/>
     </row>
-    <row r="52" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A52" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4139,7 +4158,7 @@
       <c r="J52" s="63"/>
       <c r="K52" s="65"/>
     </row>
-    <row r="53" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A53" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4170,7 +4189,7 @@
       <c r="J53" s="63"/>
       <c r="K53" s="65"/>
     </row>
-    <row r="54" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A54" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4201,7 +4220,7 @@
       <c r="J54" s="63"/>
       <c r="K54" s="65"/>
     </row>
-    <row r="55" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A55" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4232,7 +4251,7 @@
       <c r="J55" s="63"/>
       <c r="K55" s="65"/>
     </row>
-    <row r="56" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A56" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4263,7 +4282,7 @@
       <c r="J56" s="63"/>
       <c r="K56" s="65"/>
     </row>
-    <row r="57" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A57" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4294,7 +4313,7 @@
       <c r="J57" s="63"/>
       <c r="K57" s="65"/>
     </row>
-    <row r="58" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A58" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4325,7 +4344,7 @@
       <c r="J58" s="63"/>
       <c r="K58" s="65"/>
     </row>
-    <row r="59" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A59" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4356,7 +4375,7 @@
       <c r="J59" s="63"/>
       <c r="K59" s="65"/>
     </row>
-    <row r="60" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A60" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4387,7 +4406,7 @@
       <c r="J60" s="63"/>
       <c r="K60" s="65"/>
     </row>
-    <row r="61" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A61" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4418,7 +4437,7 @@
       <c r="J61" s="63"/>
       <c r="K61" s="65"/>
     </row>
-    <row r="62" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A62" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4449,7 +4468,7 @@
       <c r="J62" s="63"/>
       <c r="K62" s="65"/>
     </row>
-    <row r="63" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A63" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4480,7 +4499,7 @@
       <c r="J63" s="63"/>
       <c r="K63" s="65"/>
     </row>
-    <row r="64" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A64" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4511,7 +4530,7 @@
       <c r="J64" s="63"/>
       <c r="K64" s="65"/>
     </row>
-    <row r="65" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A65" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4542,7 +4561,7 @@
       <c r="J65" s="63"/>
       <c r="K65" s="65"/>
     </row>
-    <row r="66" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A66" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4573,7 +4592,7 @@
       <c r="J66" s="63"/>
       <c r="K66" s="65"/>
     </row>
-    <row r="67" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A67" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4604,7 +4623,7 @@
       <c r="J67" s="63"/>
       <c r="K67" s="65"/>
     </row>
-    <row r="68" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A68" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4635,7 +4654,7 @@
       <c r="J68" s="63"/>
       <c r="K68" s="65"/>
     </row>
-    <row r="69" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A69" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4666,7 +4685,7 @@
       <c r="J69" s="63"/>
       <c r="K69" s="65"/>
     </row>
-    <row r="70" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A70" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4697,7 +4716,7 @@
       <c r="J70" s="63"/>
       <c r="K70" s="65"/>
     </row>
-    <row r="71" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A71" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4728,7 +4747,7 @@
       <c r="J71" s="63"/>
       <c r="K71" s="65"/>
     </row>
-    <row r="72" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A72" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4759,7 +4778,7 @@
       <c r="J72" s="63"/>
       <c r="K72" s="65"/>
     </row>
-    <row r="73" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A73" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4790,7 +4809,7 @@
       <c r="J73" s="63"/>
       <c r="K73" s="65"/>
     </row>
-    <row r="74" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A74" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4821,7 +4840,7 @@
       <c r="J74" s="63"/>
       <c r="K74" s="65"/>
     </row>
-    <row r="75" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A75" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4852,7 +4871,7 @@
       <c r="J75" s="63"/>
       <c r="K75" s="65"/>
     </row>
-    <row r="76" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A76" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4883,7 +4902,7 @@
       <c r="J76" s="63"/>
       <c r="K76" s="65"/>
     </row>
-    <row r="77" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A77" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4914,7 +4933,7 @@
       <c r="J77" s="63"/>
       <c r="K77" s="65"/>
     </row>
-    <row r="78" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A78" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4945,7 +4964,7 @@
       <c r="J78" s="63"/>
       <c r="K78" s="65"/>
     </row>
-    <row r="79" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A79" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4976,7 +4995,7 @@
       <c r="J79" s="63"/>
       <c r="K79" s="65"/>
     </row>
-    <row r="80" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A80" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5007,7 +5026,7 @@
       <c r="J80" s="63"/>
       <c r="K80" s="65"/>
     </row>
-    <row r="81" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A81" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5038,7 +5057,7 @@
       <c r="J81" s="63"/>
       <c r="K81" s="65"/>
     </row>
-    <row r="82" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A82" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5069,7 +5088,7 @@
       <c r="J82" s="63"/>
       <c r="K82" s="65"/>
     </row>
-    <row r="83" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A83" s="12" t="str">
         <f t="shared" ref="A83:A108" si="12">IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),CONCATENATE(LEFT(A82,3),IF(MID(A82,4,2)+1&lt;10,CONCATENATE("0",MID(A82,4,2)+1),MID(A82,4,2)+1)),"")</f>
         <v/>
@@ -5100,7 +5119,7 @@
       <c r="J83" s="63"/>
       <c r="K83" s="65"/>
     </row>
-    <row r="84" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A84" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5131,7 +5150,7 @@
       <c r="J84" s="63"/>
       <c r="K84" s="65"/>
     </row>
-    <row r="85" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A85" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5162,7 +5181,7 @@
       <c r="J85" s="63"/>
       <c r="K85" s="65"/>
     </row>
-    <row r="86" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A86" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5193,7 +5212,7 @@
       <c r="J86" s="63"/>
       <c r="K86" s="65"/>
     </row>
-    <row r="87" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A87" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5224,7 +5243,7 @@
       <c r="J87" s="63"/>
       <c r="K87" s="65"/>
     </row>
-    <row r="88" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A88" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5255,7 +5274,7 @@
       <c r="J88" s="63"/>
       <c r="K88" s="65"/>
     </row>
-    <row r="89" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A89" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5286,7 +5305,7 @@
       <c r="J89" s="63"/>
       <c r="K89" s="65"/>
     </row>
-    <row r="90" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A90" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5317,7 +5336,7 @@
       <c r="J90" s="63"/>
       <c r="K90" s="65"/>
     </row>
-    <row r="91" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A91" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5348,7 +5367,7 @@
       <c r="J91" s="63"/>
       <c r="K91" s="65"/>
     </row>
-    <row r="92" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A92" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5379,7 +5398,7 @@
       <c r="J92" s="63"/>
       <c r="K92" s="65"/>
     </row>
-    <row r="93" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A93" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5410,7 +5429,7 @@
       <c r="J93" s="63"/>
       <c r="K93" s="65"/>
     </row>
-    <row r="94" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A94" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5441,7 +5460,7 @@
       <c r="J94" s="63"/>
       <c r="K94" s="65"/>
     </row>
-    <row r="95" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A95" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5472,7 +5491,7 @@
       <c r="J95" s="63"/>
       <c r="K95" s="65"/>
     </row>
-    <row r="96" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A96" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5503,7 +5522,7 @@
       <c r="J96" s="63"/>
       <c r="K96" s="65"/>
     </row>
-    <row r="97" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A97" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5534,7 +5553,7 @@
       <c r="J97" s="63"/>
       <c r="K97" s="65"/>
     </row>
-    <row r="98" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A98" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5565,7 +5584,7 @@
       <c r="J98" s="63"/>
       <c r="K98" s="65"/>
     </row>
-    <row r="99" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A99" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5596,7 +5615,7 @@
       <c r="J99" s="63"/>
       <c r="K99" s="65"/>
     </row>
-    <row r="100" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A100" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5627,7 +5646,7 @@
       <c r="J100" s="63"/>
       <c r="K100" s="65"/>
     </row>
-    <row r="101" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A101" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5658,7 +5677,7 @@
       <c r="J101" s="63"/>
       <c r="K101" s="65"/>
     </row>
-    <row r="102" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A102" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5689,7 +5708,7 @@
       <c r="J102" s="63"/>
       <c r="K102" s="65"/>
     </row>
-    <row r="103" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A103" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5720,7 +5739,7 @@
       <c r="J103" s="63"/>
       <c r="K103" s="65"/>
     </row>
-    <row r="104" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A104" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5751,7 +5770,7 @@
       <c r="J104" s="63"/>
       <c r="K104" s="65"/>
     </row>
-    <row r="105" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A105" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5782,7 +5801,7 @@
       <c r="J105" s="63"/>
       <c r="K105" s="65"/>
     </row>
-    <row r="106" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A106" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5813,7 +5832,7 @@
       <c r="J106" s="63"/>
       <c r="K106" s="65"/>
     </row>
-    <row r="107" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A107" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5844,7 +5863,7 @@
       <c r="J107" s="63"/>
       <c r="K107" s="65"/>
     </row>
-    <row r="108" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" s="11" customFormat="1" ht="15">
       <c r="A108" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5916,31 +5935,36 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2"/>
+  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.85" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="72.25" style="22" customWidth="1"/>
-    <col min="2" max="2" width="11" style="22"/>
-    <col min="3" max="3" width="13.8125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="11.3125" style="22" customWidth="1"/>
-    <col min="5" max="7" width="11" style="22"/>
+    <col min="1" max="1" width="72.1640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="22"/>
+    <col min="3" max="3" width="13.83203125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="22" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="22"/>
     <col min="8" max="11" width="11" style="22" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="22"/>
+    <col min="12" max="16384" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" ht="16.25" thickBot="1">
       <c r="A1" s="93" t="s">
         <v>38</v>
       </c>
@@ -5950,7 +5974,7 @@
       <c r="E1" s="94"/>
       <c r="F1" s="95"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11">
       <c r="A2" s="30" t="s">
         <v>42</v>
       </c>
@@ -5962,7 +5986,7 @@
       <c r="E2" s="98"/>
       <c r="F2" s="32"/>
     </row>
-    <row r="3" spans="1:11" ht="63.35" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" ht="63.25">
       <c r="A3" s="33" t="s">
         <v>43</v>
       </c>
@@ -5986,7 +6010,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" ht="31.75">
       <c r="A4" s="30" t="s">
         <v>44</v>
       </c>
@@ -6014,7 +6038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.55" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" ht="79.5" thickBot="1">
       <c r="A5" s="33" t="s">
         <v>45</v>
       </c>
@@ -6041,7 +6065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32.049999999999997" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" ht="32" thickBot="1">
       <c r="A6" s="30" t="s">
         <v>10</v>
       </c>
@@ -6063,7 +6087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="32.049999999999997" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" ht="32" thickBot="1">
       <c r="A7" s="33" t="s">
         <v>11</v>
       </c>
@@ -6090,7 +6114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" ht="47.5">
       <c r="A8" s="33" t="s">
         <v>53</v>
       </c>
@@ -6109,7 +6133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" ht="47.5">
       <c r="A9" s="33" t="s">
         <v>12</v>
       </c>
@@ -6128,7 +6152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32.049999999999997" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" ht="32" thickBot="1">
       <c r="A10" s="34" t="s">
         <v>36</v>
       </c>
@@ -6147,7 +6171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11">
       <c r="I11" s="22" t="s">
         <v>32</v>
       </c>
@@ -6158,7 +6182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" ht="16.25" thickBot="1">
       <c r="I12" s="22" t="s">
         <v>37</v>
       </c>
@@ -6169,7 +6193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11">
       <c r="A13" s="93" t="s">
         <v>41</v>
       </c>
@@ -6188,7 +6212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" ht="16.25" thickBot="1">
       <c r="A14" s="33"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -6205,7 +6229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11">
       <c r="A15" s="30" t="s">
         <v>46</v>
       </c>
@@ -6223,7 +6247,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67.099999999999994" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" ht="67" customHeight="1">
       <c r="A16" s="33" t="s">
         <v>47</v>
       </c>
@@ -6247,7 +6271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" ht="32" customHeight="1" thickBot="1">
       <c r="A17" s="30" t="s">
         <v>44</v>
       </c>
@@ -6268,7 +6292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="79.55" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" ht="79.5" thickBot="1">
       <c r="A18" s="33" t="s">
         <v>48</v>
       </c>
@@ -6289,7 +6313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:11">
       <c r="A19" s="30" t="s">
         <v>10</v>
       </c>
@@ -6308,7 +6332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" ht="63.75" thickBot="1">
       <c r="A20" s="34" t="s">
         <v>51</v>
       </c>
@@ -6330,7 +6354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11">
       <c r="H21" s="22" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
@@ -6347,122 +6371,122 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:11">
       <c r="K22" s="22">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:11">
       <c r="K23" s="22">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:11">
       <c r="K24" s="22">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:11">
       <c r="K25" s="22">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11">
       <c r="K26" s="22">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:11">
       <c r="K27" s="22">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:11">
       <c r="K28" s="22">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:11">
       <c r="K29" s="22">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:11">
       <c r="K30" s="22">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:11">
       <c r="K31" s="22">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:11">
       <c r="K32" s="22">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="33" spans="11:11">
       <c r="K33" s="22">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="34" spans="11:11">
       <c r="K34" s="22">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="35" spans="11:11">
       <c r="K35" s="22">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="36" spans="11:11">
       <c r="K36" s="22">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="37" spans="11:11">
       <c r="K37" s="22">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="38" spans="11:11">
       <c r="K38" s="22">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="39" spans="11:11">
       <c r="K39" s="22">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="40" spans="11:11">
       <c r="K40" s="22">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="41" spans="11:11">
       <c r="K41" s="22">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="42" spans="11:11">
       <c r="K42" s="22">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="43" spans="11:11">
       <c r="K43" s="22">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="44" spans="11:11">
       <c r="K44" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="45" spans="11:11">
       <c r="K45" s="22" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
@@ -6481,169 +6505,181 @@
     <mergeCell ref="D7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId4" name="Drop Down 6">
+            <control shapeId="1030" r:id="rId3" name="Drop Down 6">
               <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>483531</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1019724</xdr:colOff>
+                    <xdr:colOff>1016000</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>713328</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId5" name="Drop Down 7">
+            <control shapeId="1031" r:id="rId4" name="Drop Down 7">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1014936</xdr:colOff>
+                    <xdr:colOff>1016000</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>483531</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>833014</xdr:colOff>
+                    <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>713328</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1032" r:id="rId6" name="Drop Down 8">
+            <control shapeId="1032" r:id="rId5" name="Drop Down 8">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>4787</xdr:colOff>
+                    <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>483531</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>837801</xdr:colOff>
+                    <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>713328</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId7" name="Drop Down 11">
+            <control shapeId="1035" r:id="rId6" name="Drop Down 11">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>4787</xdr:colOff>
+                    <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>483531</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>837801</xdr:colOff>
+                    <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>713328</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId8" name="Drop Down 2">
+            <control shapeId="1026" r:id="rId7" name="Drop Down 2">
               <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>19150</xdr:colOff>
+                    <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>4787</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1038873</xdr:colOff>
+                    <xdr:colOff>1041400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>234584</xdr:rowOff>
+                    <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1028" r:id="rId9" name="Drop Down 4">
+            <control shapeId="1028" r:id="rId8" name="Drop Down 4">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1048448</xdr:colOff>
+                    <xdr:colOff>1054100</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>4787</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>866526</xdr:colOff>
+                    <xdr:colOff>863600</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>234584</xdr:rowOff>
+                    <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId10" name="Drop Down 5">
+            <control shapeId="1029" r:id="rId9" name="Drop Down 5">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>14362</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>4787</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>4787</xdr:colOff>
+                    <xdr:colOff>0</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>234584</xdr:rowOff>
+                    <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
+    <mc:Fallback/>
   </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6656,22 +6692,22 @@
       <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.8125" defaultRowHeight="15.85" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21" style="22" customWidth="1"/>
-    <col min="2" max="2" width="24.1875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="16.9375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="22" customWidth="1"/>
-    <col min="5" max="5" width="6.8125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="12.8125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="12.6875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="17" style="22" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="22" customWidth="1"/>
     <col min="8" max="8" width="24.5" style="22" customWidth="1"/>
-    <col min="9" max="9" width="27.25" style="22" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" style="22" customWidth="1"/>
     <col min="10" max="10" width="44.5" style="22" customWidth="1"/>
-    <col min="11" max="16384" width="10.8125" style="22"/>
+    <col min="11" max="16384" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10">
       <c r="A1" s="108" t="s">
         <v>56</v>
       </c>
@@ -6698,7 +6734,7 @@
       </c>
       <c r="I1" s="107"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10">
       <c r="A2" s="108"/>
       <c r="B2" s="108"/>
       <c r="C2" s="108"/>
@@ -6713,7 +6749,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="41" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>69</v>
       </c>
@@ -6738,7 +6774,7 @@
       </c>
       <c r="I3" s="40"/>
     </row>
-    <row r="4" spans="1:10" s="41" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A4" s="42" t="s">
         <v>57</v>
       </c>
@@ -6767,7 +6803,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="41" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A5" s="43" t="s">
         <v>77</v>
       </c>
@@ -6796,7 +6832,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="41" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A6" s="42" t="s">
         <v>58</v>
       </c>
@@ -6825,7 +6861,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="41" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A7" s="42" t="s">
         <v>58</v>
       </c>
@@ -6850,7 +6886,7 @@
       </c>
       <c r="I7" s="42"/>
     </row>
-    <row r="8" spans="1:10" s="41" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A8" s="42" t="s">
         <v>80</v>
       </c>
@@ -6879,7 +6915,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="41" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A9" s="42" t="s">
         <v>82</v>
       </c>
@@ -6908,7 +6944,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="41" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A10" s="42" t="s">
         <v>84</v>
       </c>
@@ -6937,7 +6973,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="41" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A11" s="42" t="s">
         <v>86</v>
       </c>
@@ -6962,7 +6998,7 @@
       </c>
       <c r="I11" s="42"/>
     </row>
-    <row r="12" spans="1:10" s="41" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A12" s="42" t="s">
         <v>89</v>
       </c>
@@ -6991,7 +7027,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="41" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A13" s="42" t="s">
         <v>91</v>
       </c>
@@ -7020,7 +7056,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:10" ht="14.75" customHeight="1">
       <c r="A14" s="44" t="s">
         <v>94</v>
       </c>
@@ -7043,7 +7079,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="77" customFormat="1" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:10" s="77" customFormat="1" ht="14.75" customHeight="1">
       <c r="A15" s="75" t="s">
         <v>96</v>
       </c>
@@ -7069,7 +7105,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:10" ht="14.75" customHeight="1">
       <c r="A16" s="46" t="s">
         <v>100</v>
       </c>
@@ -7097,7 +7133,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:10" ht="14.75" customHeight="1">
       <c r="A17" s="42" t="s">
         <v>103</v>
       </c>
@@ -7125,7 +7161,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:10" ht="14.75" customHeight="1">
       <c r="A18" s="42" t="s">
         <v>185</v>
       </c>
@@ -7151,7 +7187,7 @@
       <c r="I18" s="44"/>
       <c r="J18" s="49"/>
     </row>
-    <row r="19" spans="1:10" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:10" ht="14.75" customHeight="1">
       <c r="A19" s="42" t="s">
         <v>138</v>
       </c>
@@ -7175,7 +7211,7 @@
       <c r="I19" s="44"/>
       <c r="J19" s="49"/>
     </row>
-    <row r="20" spans="1:10" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:10" ht="14.75" customHeight="1">
       <c r="A20" s="42" t="s">
         <v>138</v>
       </c>
@@ -7199,7 +7235,7 @@
       <c r="I20" s="44"/>
       <c r="J20" s="49"/>
     </row>
-    <row r="21" spans="1:10" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:10" ht="14.75" customHeight="1">
       <c r="A21" s="42" t="s">
         <v>138</v>
       </c>
@@ -7223,7 +7259,7 @@
       <c r="I21" s="72"/>
       <c r="J21" s="49"/>
     </row>
-    <row r="22" spans="1:10" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:10" ht="14.75" customHeight="1">
       <c r="A22" s="44" t="s">
         <v>133</v>
       </c>
@@ -7247,7 +7283,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:10" ht="14.75" customHeight="1">
       <c r="A23" s="42" t="s">
         <v>133</v>
       </c>
@@ -7276,7 +7312,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:10" ht="14.75" customHeight="1">
       <c r="A24" s="42" t="s">
         <v>135</v>
       </c>
@@ -7299,7 +7335,7 @@
       <c r="H24" s="44"/>
       <c r="I24" s="72"/>
     </row>
-    <row r="25" spans="1:10" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:10" ht="14.75" customHeight="1">
       <c r="A25" s="42" t="s">
         <v>136</v>
       </c>
@@ -7323,7 +7359,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:10" ht="14.75" customHeight="1">
       <c r="A26" s="42" t="s">
         <v>136</v>
       </c>
@@ -7352,7 +7388,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:10" ht="14.75" customHeight="1">
       <c r="A27" s="42" t="s">
         <v>139</v>
       </c>
@@ -7376,7 +7412,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:10" ht="14.75" customHeight="1">
       <c r="A28" s="42" t="s">
         <v>139</v>
       </c>
@@ -7400,7 +7436,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:10" ht="14.75" customHeight="1">
       <c r="A29" s="42" t="s">
         <v>139</v>
       </c>
@@ -7429,7 +7465,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:10" ht="14.75" customHeight="1">
       <c r="A30" s="42" t="s">
         <v>140</v>
       </c>
@@ -7452,7 +7488,7 @@
       <c r="H30" s="44"/>
       <c r="I30" s="44"/>
     </row>
-    <row r="31" spans="1:10" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:10" ht="14.75" customHeight="1">
       <c r="A31" s="42" t="s">
         <v>141</v>
       </c>
@@ -7469,7 +7505,7 @@
       <c r="H31" s="44"/>
       <c r="I31" s="44"/>
     </row>
-    <row r="32" spans="1:10" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:10" ht="14.75" customHeight="1">
       <c r="A32" s="42" t="s">
         <v>142</v>
       </c>
@@ -7484,7 +7520,7 @@
       <c r="H32" s="44"/>
       <c r="I32" s="44"/>
     </row>
-    <row r="33" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:9" ht="14.75" customHeight="1">
       <c r="A33" s="42" t="s">
         <v>137</v>
       </c>
@@ -7505,7 +7541,7 @@
       <c r="H33" s="44"/>
       <c r="I33" s="44"/>
     </row>
-    <row r="34" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:9" ht="14.75" customHeight="1">
       <c r="A34" s="42" t="s">
         <v>143</v>
       </c>
@@ -7522,7 +7558,7 @@
       <c r="H34" s="44"/>
       <c r="I34" s="44"/>
     </row>
-    <row r="35" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:9" ht="14.75" customHeight="1">
       <c r="A35" s="42" t="s">
         <v>95</v>
       </c>
@@ -7551,7 +7587,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:9" ht="14.75" customHeight="1">
       <c r="A36" s="42" t="s">
         <v>95</v>
       </c>
@@ -7580,7 +7616,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:9" ht="14.75" customHeight="1">
       <c r="A37" s="42" t="s">
         <v>144</v>
       </c>
@@ -7603,7 +7639,7 @@
       <c r="H37" s="44"/>
       <c r="I37" s="44"/>
     </row>
-    <row r="38" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:9" ht="14.75" customHeight="1">
       <c r="A38" s="42" t="s">
         <v>144</v>
       </c>
@@ -7626,13 +7662,13 @@
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:9">
       <c r="A40" s="50" t="s">
         <v>107</v>
       </c>
       <c r="B40" s="50"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:9">
       <c r="A41" s="51" t="s">
         <v>108</v>
       </c>
@@ -7646,7 +7682,7 @@
       <c r="E41" s="52"/>
       <c r="F41" s="52"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:9">
       <c r="A42" s="54" t="s">
         <v>109</v>
       </c>
@@ -7660,7 +7696,7 @@
       <c r="E42" s="55"/>
       <c r="F42" s="55"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:9">
       <c r="A43" s="54" t="s">
         <v>110</v>
       </c>
@@ -7674,7 +7710,7 @@
       <c r="E43" s="55"/>
       <c r="F43" s="55"/>
     </row>
-    <row r="44" spans="1:9" ht="31.7" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:9" ht="31.75">
       <c r="A44" s="54" t="s">
         <v>111</v>
       </c>
@@ -7688,7 +7724,7 @@
       <c r="E44" s="55"/>
       <c r="F44" s="55"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:9">
       <c r="A45" s="54" t="s">
         <v>112</v>
       </c>
@@ -7702,7 +7738,7 @@
       <c r="E45" s="55"/>
       <c r="F45" s="55"/>
     </row>
-    <row r="46" spans="1:9" ht="47.5" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:9" ht="47.5">
       <c r="A46" s="54" t="s">
         <v>163</v>
       </c>
@@ -7729,6 +7765,10 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>